--- a/大物实验/实验/实验数据处理表格/转动惯量的测量.xlsx
+++ b/大物实验/实验/实验数据处理表格/转动惯量的测量.xlsx
@@ -1,24 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\HIWIFI\Backup\杭电物理实验报告 共5张\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\David\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8F24C04-FA7A-4813-AC68-9AC9FC500A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -177,7 +185,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
@@ -402,52 +410,52 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -729,177 +737,177 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9" style="1"/>
-    <col min="7" max="8" width="13.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19" t="s">
+      <c r="D1" s="17"/>
+      <c r="E1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19" t="s">
+      <c r="F1" s="17"/>
+      <c r="G1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="19"/>
+      <c r="H1" s="17"/>
       <c r="I1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="20" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="10">
         <v>0.76449999999999996</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="14"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="19"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
       <c r="F3" s="10">
         <v>0.76419999999999999</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="12"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="14"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="18"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
       <c r="F4" s="10">
         <v>0.7641</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="12"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="14"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="18"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="19"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
       <c r="E5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="10">
         <v>0.76429999999999998</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="12"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="14" t="s">
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="18"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="20" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="8">
         <v>100.01</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="20" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="10">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="18">
         <v>1.6</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="14"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="8">
         <v>100.01</v>
       </c>
-      <c r="E7" s="16"/>
+      <c r="E7" s="20"/>
       <c r="F7" s="10">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="12"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="14"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="18"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="8">
         <v>100.008</v>
       </c>
-      <c r="E8" s="16"/>
+      <c r="E8" s="20"/>
       <c r="F8" s="10">
         <v>1.1086</v>
       </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="12"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="14"/>
-      <c r="B9" s="16"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="18"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="19"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="4" t="s">
         <v>8</v>
       </c>
@@ -912,72 +920,72 @@
       <c r="F9" s="10">
         <v>1.1094999999999999</v>
       </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="12"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="14" t="s">
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="18"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="20" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="20" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="10">
         <v>2.1930000000000001</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="18">
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="14"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="16"/>
+      <c r="E11" s="20"/>
       <c r="F11" s="10">
         <v>2.1920000000000002</v>
       </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="12"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="14"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="18"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
       <c r="D12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="16"/>
+      <c r="E12" s="20"/>
       <c r="F12" s="10">
         <v>2.1932</v>
       </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="12"/>
-    </row>
-    <row r="13" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
-      <c r="B13" s="17"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="18"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="23"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="6" t="s">
         <v>13</v>
       </c>
@@ -990,13 +998,21 @@
       <c r="F13" s="11">
         <v>2.1926999999999999</v>
       </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="13"/>
-    </row>
-    <row r="14" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="22"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="H10:H13"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -1013,14 +1029,6 @@
     <mergeCell ref="C2:D5"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="G2:G5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="H10:H13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1029,43 +1037,43 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="A1:G8"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="21">
+      <c r="B1" s="17"/>
+      <c r="C1" s="12">
         <v>5</v>
       </c>
-      <c r="D1" s="21">
+      <c r="D1" s="12">
         <v>10</v>
       </c>
-      <c r="E1" s="21">
+      <c r="E1" s="12">
         <v>15</v>
       </c>
-      <c r="F1" s="21">
+      <c r="F1" s="12">
         <v>20</v>
       </c>
-      <c r="G1" s="22">
+      <c r="G1" s="13">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1083,12 +1091,12 @@
       <c r="F2" s="10">
         <v>5.1760000000000002</v>
       </c>
-      <c r="G2" s="23">
+      <c r="G2" s="14">
         <v>6.2446000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="14"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="19"/>
       <c r="B3" s="4" t="s">
         <v>26</v>
       </c>
@@ -1104,12 +1112,12 @@
       <c r="F3" s="10">
         <v>5.1760000000000002</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="14">
         <v>6.2384000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="14"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
       <c r="B4" s="4" t="s">
         <v>27</v>
       </c>
@@ -1125,12 +1133,12 @@
       <c r="F4" s="10">
         <v>5.1768000000000001</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="14">
         <v>6.2382999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="14"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="19"/>
       <c r="B5" s="4" t="s">
         <v>28</v>
       </c>
@@ -1146,15 +1154,15 @@
       <c r="F5" s="10">
         <v>5.1763000000000003</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="14">
         <v>6.2404000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="24" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="4">
         <v>5.9199999999999997E-4</v>
       </c>
@@ -1171,11 +1179,11 @@
         <v>1.4619999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="24" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="16"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="4">
         <v>6.2699999999999995E-4</v>
       </c>
@@ -1192,33 +1200,33 @@
         <v>1.456E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="26">
+      <c r="B8" s="24"/>
+      <c r="C8" s="15">
         <f>(C7-C6)/C7</f>
         <v>5.5821371610845272E-2</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="15">
         <f t="shared" ref="D8:G8" si="0">(D7-D6)/D7</f>
         <v>5.4438860971524252E-3</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="15">
         <f t="shared" si="0"/>
         <v>-4.2129452317120489E-3</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="15">
         <f t="shared" si="0"/>
         <v>1.0891403193401783E-2</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="16">
         <f t="shared" si="0"/>
         <v>-4.1208791208790724E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
